--- a/data/Password.xlsx
+++ b/data/Password.xlsx
@@ -8,12 +8,13 @@
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="Password" sheetId="2" r:id="rId5"/>
     <sheet name="Password-Recovery" sheetId="3" r:id="rId6"/>
+    <sheet name="Forgot" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -27,10 +28,52 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+  </si>
+  <si>
+    <t>Password-Recovery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Password-Recovery</t>
+    </r>
+  </si>
+  <si>
+    <t>Forgot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Forgot</t>
+    </r>
   </si>
   <si>
     <t>email</t>
@@ -51,7 +94,10 @@
     <t>Test1234$</t>
   </si>
   <si>
-    <t>Password-Recovery</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>testuser40</t>
   </si>
 </sst>
 </file>
@@ -130,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -142,6 +188,93 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
       <right style="thin">
         <color indexed="13"/>
       </right>
@@ -185,7 +318,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -207,23 +340,86 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,73 +1475,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Password'!R1C1" tooltip="" display="Password"/>
-    <hyperlink ref="D12" location="'Password-Recovery'!R1C1" tooltip="" display="Password-Recovery"/>
+    <hyperlink ref="D12" location="'Password'!R1C1" tooltip="" display="Password"/>
+    <hyperlink ref="D14" location="'Password-Recovery'!R1C1" tooltip="" display="Password-Recovery"/>
+    <hyperlink ref="D16" location="'Forgot'!R1C1" tooltip="" display="Forgot"/>
+    <hyperlink ref="D12" location="'Password'!R1C1" tooltip="" display="Password"/>
+    <hyperlink ref="D14" location="'Password-Recovery'!R1C1" tooltip="" display="Password-Recovery"/>
+    <hyperlink ref="D16" location="'Forgot'!R1C1" tooltip="" display="Forgot"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1360,37 +1672,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="12.6719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="6" customWidth="1"/>
+    <col min="1" max="3" width="12.6719" style="25" customWidth="1"/>
+    <col min="4" max="4" width="13.8516" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="12.6719" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>11</v>
+      <c r="A2" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1413,32 +1725,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.6719" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.8516" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="12.6719" style="11" customWidth="1"/>
+    <col min="1" max="2" width="12.6719" style="30" customWidth="1"/>
+    <col min="3" max="3" width="13.8516" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="12.6719" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>9</v>
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>11</v>
-      </c>
+      <c r="A2" t="s" s="31">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="12.6719" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
